--- a/data/old/FOREX_4M.xlsx
+++ b/data/old/FOREX_4M.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="841">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -173,6 +173,12 @@
     <t>2021M11</t>
   </si>
   <si>
+    <t>2021M12</t>
+  </si>
+  <si>
+    <t>2022M01</t>
+  </si>
+  <si>
     <t>Afghanistan, Islamic Rep. of</t>
   </si>
   <si>
@@ -197,6 +203,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -209,6 +221,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Andorra, Principality of</t>
   </si>
   <si>
@@ -341,6 +356,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Armenia, Rep. of</t>
   </si>
   <si>
@@ -359,6 +377,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Azerbaijan, Rep. of</t>
   </si>
   <si>
@@ -449,6 +470,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
@@ -467,6 +491,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
@@ -482,6 +509,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cabo Verde</t>
   </si>
   <si>
@@ -494,6 +524,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cambodia</t>
   </si>
   <si>
@@ -545,18 +581,27 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>China, P.R.: Macao</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>China, P.R.: Mainland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Colombia</t>
   </si>
   <si>
@@ -575,9 +620,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Congo, Rep. of</t>
   </si>
   <si>
@@ -620,6 +662,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -644,6 +689,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -656,6 +704,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>El Salvador</t>
   </si>
   <si>
@@ -704,6 +755,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Euro Area</t>
   </si>
   <si>
@@ -716,6 +773,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>French Polynesia</t>
   </si>
   <si>
@@ -743,6 +803,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -758,6 +824,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Gibraltar</t>
   </si>
   <si>
@@ -806,6 +878,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
@@ -836,24 +914,39 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Hungary</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Iceland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
@@ -884,6 +977,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Isle of Man</t>
   </si>
   <si>
@@ -911,6 +1007,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -935,6 +1037,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Kenya</t>
   </si>
   <si>
@@ -947,6 +1052,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Korea, Rep. of</t>
   </si>
   <si>
@@ -980,6 +1088,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Lebanon</t>
   </si>
   <si>
@@ -1007,6 +1118,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Libya</t>
   </si>
   <si>
@@ -1049,6 +1166,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Madagascar, Rep. of</t>
   </si>
   <si>
@@ -1058,12 +1181,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
@@ -1076,18 +1193,30 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Malaysia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Maldives</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Mali</t>
   </si>
   <si>
@@ -1118,12 +1247,21 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Mauritius</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Mexico</t>
   </si>
   <si>
@@ -1160,6 +1298,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -1190,6 +1334,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Myanmar</t>
   </si>
   <si>
@@ -1220,18 +1367,30 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Namibia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Nauru, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Nepal</t>
   </si>
   <si>
@@ -1277,6 +1436,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Niger</t>
   </si>
   <si>
@@ -1292,12 +1457,21 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>North Macedonia, Republic of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -1316,6 +1490,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Palau, Rep. of</t>
   </si>
   <si>
@@ -1337,12 +1514,21 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Paraguay</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Peru</t>
   </si>
   <si>
@@ -1352,27 +1538,24 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Philippines</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Poland, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Qatar</t>
   </si>
   <si>
@@ -1394,21 +1577,24 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Rwanda</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Samoa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>San Marino, Rep. of</t>
   </si>
   <si>
@@ -1448,6 +1634,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
@@ -1472,12 +1664,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
@@ -1487,6 +1673,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -1523,6 +1715,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Somalia</t>
   </si>
   <si>
@@ -1652,6 +1850,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>South Africa</t>
   </si>
   <si>
@@ -1664,6 +1868,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
@@ -1697,6 +1904,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>St. Kitts and Nevis</t>
   </si>
   <si>
@@ -1739,6 +1952,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Suriname</t>
   </si>
   <si>
@@ -1880,6 +2099,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Taiwan Province of China</t>
   </si>
   <si>
@@ -1898,9 +2123,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Tanzania, United Rep. of</t>
   </si>
   <si>
@@ -1934,6 +2156,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -1961,6 +2189,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
@@ -1973,12 +2207,21 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Turkey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Uganda</t>
   </si>
   <si>
@@ -1991,6 +2234,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
@@ -2015,6 +2261,12 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Uzbekistan, Rep. of</t>
   </si>
   <si>
@@ -2162,6 +2414,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Vietnam</t>
   </si>
   <si>
@@ -2171,12 +2429,24 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Yemen, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Zambia</t>
   </si>
   <si>
@@ -2186,10 +2456,22 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
     <t>Units</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t>...</t>
@@ -2758,7 +3040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AY196"/>
+  <dimension ref="A1:BA196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
@@ -2817,6 +3099,8 @@
     <col min="49" max="49" width="9.710938" customWidth="1"/>
     <col min="50" max="50" width="9.710938" customWidth="1"/>
     <col min="51" max="51" width="9.710938" customWidth="1"/>
+    <col min="52" max="52" width="9.710938" customWidth="1"/>
+    <col min="53" max="53" width="9.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.500000" customHeight="1">
@@ -2871,6 +3155,8 @@
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
       <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
     </row>
     <row r="2" ht="18.750000" customHeight="1">
       <c r="A2" s="1"/>
@@ -2926,6 +3212,8 @@
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
     </row>
     <row r="3" ht="31.500000" customHeight="1">
       <c r="A3" s="1"/>
@@ -2981,6 +3269,8 @@
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
     </row>
     <row r="4" ht="13.500000" customHeight="1">
       <c r="A4" s="1"/>
@@ -3034,6 +3324,8 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
     </row>
     <row r="5" ht="14.250000" customHeight="1">
       <c r="A5" s="1"/>
@@ -3089,6 +3381,8 @@
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
     </row>
     <row r="6" ht="13.500000" customHeight="1">
       <c r="A6" s="1"/>
@@ -3142,6 +3436,8 @@
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
     </row>
     <row r="7" ht="24.000000" customHeight="1">
       <c r="A7" s="1"/>
@@ -3292,17 +3588,23 @@
       <c r="AX7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AY7" s="10" t="s">
+      <c r="AY7" s="9" t="s">
         <v>52</v>
+      </c>
+      <c r="AZ7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA7" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" ht="14.250000" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="13" t="str">
         <v/>
@@ -3431,31 +3733,37 @@
         <v>111.60884510278601</v>
       </c>
       <c r="AT8" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AU8" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AV8" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AW8" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX8" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AY8" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="AZ8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA8" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" ht="14.250000" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D9" s="18" t="str">
         <v/>
@@ -3600,15 +3908,21 @@
       </c>
       <c r="AY9" s="20">
         <v>150.11130786118801</v>
+      </c>
+      <c r="AZ9" s="20">
+        <v>149.36529874719699</v>
+      </c>
+      <c r="BA9" s="20">
+        <v>150.220729978376</v>
       </c>
     </row>
     <row r="10" ht="14.250000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D10" s="18" t="str">
         <v/>
@@ -3753,117 +4067,123 @@
       </c>
       <c r="AY10" s="22">
         <v>194.07773190186001</v>
+      </c>
+      <c r="AZ10" s="22">
+        <v>194.143298854683</v>
+      </c>
+      <c r="BA10" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" ht="14.250000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D11" s="18" t="str">
         <v/>
       </c>
       <c r="E11" s="19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AC11" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AF11" s="20" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AG11" s="20" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH11" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AI11" s="20" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AJ11" s="20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AK11" s="20" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AL11" s="20">
         <v>1.20077457857706</v>
@@ -3906,15 +4226,21 @@
       </c>
       <c r="AY11" s="20">
         <v>1.23014266545282</v>
+      </c>
+      <c r="AZ11" s="20">
+        <v>1.2365473336313699</v>
+      </c>
+      <c r="BA11" s="20">
+        <v>1.23712832688494</v>
       </c>
     </row>
     <row r="12" ht="14.250000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D12" s="18" t="str">
         <v/>
@@ -4057,17 +4383,23 @@
       <c r="AX12" s="22">
         <v>853.32105452487997</v>
       </c>
-      <c r="AY12" s="22" t="s">
-        <v>102</v>
+      <c r="AY12" s="22">
+        <v>840.64403435649695</v>
+      </c>
+      <c r="AZ12" s="22">
+        <v>793.80871040702095</v>
+      </c>
+      <c r="BA12" s="22" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" ht="14.250000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D13" s="18" t="str">
         <v/>
@@ -4212,15 +4544,21 @@
       </c>
       <c r="AY13" s="20">
         <v>3.7910441607446401</v>
+      </c>
+      <c r="AZ13" s="20">
+        <v>3.7739688060774101</v>
+      </c>
+      <c r="BA13" s="20">
+        <v>3.7793139297578802</v>
       </c>
     </row>
     <row r="14" ht="14.250000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D14" s="18" t="str">
         <v/>
@@ -4365,15 +4703,21 @@
       </c>
       <c r="AY14" s="22">
         <v>3.7910441607446401</v>
+      </c>
+      <c r="AZ14" s="22">
+        <v>3.7739688060774101</v>
+      </c>
+      <c r="BA14" s="22">
+        <v>3.7793139297578802</v>
       </c>
     </row>
     <row r="15" ht="14.250000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D15" s="18" t="str">
         <v/>
@@ -4518,15 +4862,21 @@
       </c>
       <c r="AY15" s="20">
         <v>140.70727179785399</v>
+      </c>
+      <c r="AZ15" s="20">
+        <v>142.27303292422101</v>
+      </c>
+      <c r="BA15" s="20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="16" ht="14.250000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D16" s="18" t="str">
         <v/>
@@ -4671,15 +5021,21 @@
       </c>
       <c r="AY16" s="22">
         <v>670.67336718816398</v>
+      </c>
+      <c r="AZ16" s="22">
+        <v>678.11103544432001</v>
+      </c>
+      <c r="BA16" s="22">
+        <v>674.659106047568</v>
       </c>
     </row>
     <row r="17" ht="24.000000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D17" s="18" t="str">
         <v/>
@@ -4824,15 +5180,21 @@
       </c>
       <c r="AY17" s="20">
         <v>2.5133218695306998</v>
+      </c>
+      <c r="AZ17" s="20">
+        <v>2.5020015418068802</v>
+      </c>
+      <c r="BA17" s="20">
+        <v>2.5055451608394899</v>
       </c>
     </row>
     <row r="18" ht="14.250000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D18" s="18" t="str">
         <v/>
@@ -4977,15 +5339,21 @@
       </c>
       <c r="AY18" s="22">
         <v>1.91994464900983</v>
+      </c>
+      <c r="AZ18" s="22">
+        <v>1.9547615717648601</v>
+      </c>
+      <c r="BA18" s="22" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="19" ht="14.250000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D19" s="18" t="str">
         <v/>
@@ -5128,17 +5496,23 @@
       <c r="AX19" s="20">
         <v>2.40149384199316</v>
       </c>
-      <c r="AY19" s="20" t="s">
-        <v>117</v>
+      <c r="AY19" s="20">
+        <v>2.3869537308392101</v>
+      </c>
+      <c r="AZ19" s="20">
+        <v>2.3762025816043</v>
+      </c>
+      <c r="BA19" s="20" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20" ht="14.250000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D20" s="18" t="str">
         <v/>
@@ -5283,15 +5657,21 @@
       </c>
       <c r="AY20" s="22">
         <v>1.40409042990542</v>
+      </c>
+      <c r="AZ20" s="22">
+        <v>1.3977662244731199</v>
+      </c>
+      <c r="BA20" s="22">
+        <v>1.39974589991033</v>
       </c>
     </row>
     <row r="21" ht="14.250000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D21" s="18" t="str">
         <v/>
@@ -5436,15 +5816,21 @@
       </c>
       <c r="AY21" s="20">
         <v>0.52793800164443805</v>
+      </c>
+      <c r="AZ21" s="20">
+        <v>0.52556010040189205</v>
+      </c>
+      <c r="BA21" s="20">
+        <v>0.52630445836628303</v>
       </c>
     </row>
     <row r="22" ht="14.250000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D22" s="18" t="str">
         <v/>
@@ -5589,15 +5975,21 @@
       </c>
       <c r="AY22" s="22">
         <v>120.43585662513701</v>
+      </c>
+      <c r="AZ22" s="22">
+        <v>119.928342059793</v>
+      </c>
+      <c r="BA22" s="22">
+        <v>120.313543735369</v>
       </c>
     </row>
     <row r="23" ht="14.250000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D23" s="18" t="str">
         <v/>
@@ -5742,15 +6134,21 @@
       </c>
       <c r="AY23" s="20">
         <v>2.80818085981084</v>
+      </c>
+      <c r="AZ23" s="20">
+        <v>2.7955324489462301</v>
+      </c>
+      <c r="BA23" s="20">
+        <v>2.7994917998206499</v>
       </c>
     </row>
     <row r="24" ht="14.250000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D24" s="18" t="str">
         <v/>
@@ -5893,17 +6291,23 @@
       <c r="AX24" s="22">
         <v>3.4797645770480798</v>
       </c>
-      <c r="AY24" s="22" t="s">
-        <v>128</v>
+      <c r="AY24" s="22">
+        <v>3.4756854501878802</v>
+      </c>
+      <c r="AZ24" s="22">
+        <v>3.5384451972536901</v>
+      </c>
+      <c r="BA24" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" ht="14.250000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="16" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D25" s="18" t="str">
         <v/>
@@ -6048,15 +6452,21 @@
       </c>
       <c r="AY25" s="20">
         <v>2.80818085981084</v>
+      </c>
+      <c r="AZ25" s="20">
+        <v>2.7955324489462301</v>
+      </c>
+      <c r="BA25" s="20">
+        <v>2.7994917998206499</v>
       </c>
     </row>
     <row r="26" ht="14.250000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="16" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D26" s="18" t="str">
         <v/>
@@ -6201,15 +6611,21 @@
       </c>
       <c r="AY26" s="22">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ26" s="22">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA26" s="22">
+        <v>811.50298591846297</v>
       </c>
     </row>
     <row r="27" ht="14.250000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="16" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D27" s="18" t="str">
         <v/>
@@ -6354,15 +6770,21 @@
       </c>
       <c r="AY27" s="20">
         <v>1.40409042990542</v>
+      </c>
+      <c r="AZ27" s="20">
+        <v>1.3977662244731199</v>
+      </c>
+      <c r="BA27" s="20">
+        <v>1.39974589991033</v>
       </c>
     </row>
     <row r="28" ht="14.250000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="16" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D28" s="18" t="str">
         <v/>
@@ -6506,16 +6928,22 @@
         <v>105.828584531027</v>
       </c>
       <c r="AY28" s="22">
-        <v>104.58095834355601</v>
+        <v>104.599837491348</v>
+      </c>
+      <c r="AZ28" s="22">
+        <v>105.35316514032201</v>
+      </c>
+      <c r="BA28" s="22">
+        <v>104.208768984047</v>
       </c>
     </row>
     <row r="29" ht="14.250000" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="16" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D29" s="18" t="str">
         <v/>
@@ -6658,17 +7086,23 @@
       <c r="AX29" s="20">
         <v>9.7613661459839403</v>
       </c>
-      <c r="AY29" s="20" t="s">
-        <v>139</v>
+      <c r="AY29" s="20">
+        <v>9.7022648706464594</v>
+      </c>
+      <c r="AZ29" s="20">
+        <v>9.6585646111092291</v>
+      </c>
+      <c r="BA29" s="20" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" ht="14.250000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D30" s="18" t="str">
         <v/>
@@ -6811,17 +7245,23 @@
       <c r="AX30" s="22">
         <v>2.38143924944736</v>
       </c>
-      <c r="AY30" s="22" t="s">
-        <v>142</v>
+      <c r="AY30" s="22">
+        <v>2.4060912025807402</v>
+      </c>
+      <c r="AZ30" s="22">
+        <v>2.4182902244078401</v>
+      </c>
+      <c r="BA30" s="22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31" ht="14.250000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="16" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D31" s="18" t="str">
         <v/>
@@ -6966,15 +7406,21 @@
       </c>
       <c r="AY31" s="20">
         <v>16.216261602106702</v>
+      </c>
+      <c r="AZ31" s="20">
+        <v>16.395098929957399</v>
+      </c>
+      <c r="BA31" s="20" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="32" ht="14.250000" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D32" s="18" t="str">
         <v/>
@@ -7119,15 +7565,21 @@
       </c>
       <c r="AY32" s="22">
         <v>7.8014914920662903</v>
+      </c>
+      <c r="AZ32" s="22">
+        <v>7.8982239052522498</v>
+      </c>
+      <c r="BA32" s="22">
+        <v>7.7550785130263398</v>
       </c>
     </row>
     <row r="33" ht="14.250000" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="16" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D33" s="18" t="str">
         <v/>
@@ -7272,15 +7724,21 @@
       </c>
       <c r="AY33" s="20">
         <v>1.9041387616421599</v>
+      </c>
+      <c r="AZ33" s="20">
+        <v>1.9093020704227901</v>
+      </c>
+      <c r="BA33" s="20">
+        <v>1.89067178065638</v>
       </c>
     </row>
     <row r="34" ht="14.250000" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="16" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D34" s="18" t="str">
         <v/>
@@ -7425,15 +7883,21 @@
       </c>
       <c r="AY34" s="22">
         <v>2.4061897697289201</v>
+      </c>
+      <c r="AZ34" s="22">
+        <v>2.4189742280731701</v>
+      </c>
+      <c r="BA34" s="22" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="35" ht="14.250000" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D35" s="18" t="str">
         <v/>
@@ -7578,15 +8042,21 @@
       </c>
       <c r="AY35" s="20">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ35" s="20">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA35" s="20">
+        <v>811.50298591846297</v>
       </c>
     </row>
     <row r="36" ht="14.250000" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="16" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D36" s="18" t="str">
         <v/>
@@ -7729,17 +8199,23 @@
       <c r="AX36" s="22">
         <v>2816.1188170304599</v>
       </c>
-      <c r="AY36" s="22" t="s">
-        <v>155</v>
+      <c r="AY36" s="22">
+        <v>2805.9062333143902</v>
+      </c>
+      <c r="AZ36" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA36" s="22" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -7880,19 +8356,25 @@
         <v>132.975793873946</v>
       </c>
       <c r="AX37" s="20" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AY37" s="20" t="s">
-        <v>159</v>
+        <v>169</v>
+      </c>
+      <c r="AZ37" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="BA37" s="20" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -8035,17 +8517,23 @@
       <c r="AX38" s="22">
         <v>5803.9139124375297</v>
       </c>
-      <c r="AY38" s="22" t="s">
-        <v>162</v>
+      <c r="AY38" s="22">
+        <v>5761.8488896670497</v>
+      </c>
+      <c r="AZ38" s="22">
+        <v>5746.60020728989</v>
+      </c>
+      <c r="BA38" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -8190,15 +8678,21 @@
       </c>
       <c r="AY39" s="20">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ39" s="20">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA39" s="20">
+        <v>811.50298591846297</v>
       </c>
     </row>
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -8343,15 +8837,21 @@
       </c>
       <c r="AY40" s="22">
         <v>1.76116622723515</v>
+      </c>
+      <c r="AZ40" s="22">
+        <v>1.7876462326701901</v>
+      </c>
+      <c r="BA40" s="22">
+        <v>1.7665529965236699</v>
       </c>
     </row>
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -8496,15 +8996,21 @@
       </c>
       <c r="AY41" s="20">
         <v>1.1700706779530801</v>
+      </c>
+      <c r="AZ41" s="20">
+        <v>1.1648005278401801</v>
+      </c>
+      <c r="BA41" s="20">
+        <v>1.16645025077227</v>
       </c>
     </row>
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -8649,15 +9155,21 @@
       </c>
       <c r="AY42" s="22">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ42" s="22">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA42" s="22">
+        <v>811.50298591846297</v>
       </c>
     </row>
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -8802,15 +9314,21 @@
       </c>
       <c r="AY43" s="20">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ43" s="20">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA43" s="20">
+        <v>811.50298591846297</v>
       </c>
     </row>
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -8955,15 +9473,21 @@
       </c>
       <c r="AY44" s="22">
         <v>1140.5522631466899</v>
+      </c>
+      <c r="AZ44" s="22">
+        <v>1183.18514730979</v>
+      </c>
+      <c r="BA44" s="22">
+        <v>1151.1272324059501</v>
       </c>
     </row>
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -9108,15 +9632,21 @@
       </c>
       <c r="AY45" s="20">
         <v>10.939268539393099</v>
+      </c>
+      <c r="AZ45" s="20">
+        <v>10.901178784665801</v>
+      </c>
+      <c r="BA45" s="20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -9261,15 +9791,21 @@
       </c>
       <c r="AY46" s="22">
         <v>11.265685866175801</v>
+      </c>
+      <c r="AZ46" s="22">
+        <v>11.227940186025799</v>
+      </c>
+      <c r="BA46" s="22" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -9414,15 +9950,21 @@
       </c>
       <c r="AY47" s="20">
         <v>8.9722361334257297</v>
+      </c>
+      <c r="AZ47" s="20">
+        <v>8.8998077715396509</v>
+      </c>
+      <c r="BA47" s="20" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -9567,15 +10109,21 @@
       </c>
       <c r="AY48" s="22">
         <v>5465.9040694544501</v>
+      </c>
+      <c r="AZ48" s="22">
+        <v>5526.0916409926804</v>
+      </c>
+      <c r="BA48" s="22">
+        <v>5600.6309255972701</v>
       </c>
     </row>
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -9720,15 +10268,21 @@
       </c>
       <c r="AY49" s="20">
         <v>605.19051930182502</v>
+      </c>
+      <c r="AZ49" s="20">
+        <v>608.341409495123</v>
+      </c>
+      <c r="BA49" s="20">
+        <v>608.62723943884703</v>
       </c>
     </row>
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -9842,7 +10396,7 @@
         <v>2831.2810858287799</v>
       </c>
       <c r="AO50" s="22">
-        <v>2850.9371847420002</v>
+        <v>2850.9371606969598</v>
       </c>
       <c r="AP50" s="22">
         <v>2851.97199665993</v>
@@ -9851,7 +10405,7 @@
         <v>2827.6784526040001</v>
       </c>
       <c r="AR50" s="22">
-        <v>2837.3317413013801</v>
+        <v>2837.6322940099899</v>
       </c>
       <c r="AS50" s="22">
         <v>2864.6954325459401</v>
@@ -9871,17 +10425,23 @@
       <c r="AX50" s="22">
         <v>2821.7923697762299</v>
       </c>
-      <c r="AY50" s="22" t="s">
-        <v>187</v>
+      <c r="AY50" s="22">
+        <v>2807.6843223769902</v>
+      </c>
+      <c r="AZ50" s="22">
+        <v>2795.1562188965599</v>
+      </c>
+      <c r="BA50" s="22">
+        <v>2798.6634228299999</v>
       </c>
     </row>
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -10026,15 +10586,21 @@
       </c>
       <c r="AY51" s="20">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ51" s="20">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA51" s="20">
+        <v>811.50298591846297</v>
       </c>
     </row>
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -10179,15 +10745,21 @@
       </c>
       <c r="AY52" s="22">
         <v>895.29158491102305</v>
+      </c>
+      <c r="AZ52" s="22">
+        <v>891.67407677798701</v>
+      </c>
+      <c r="BA52" s="22">
+        <v>893.82264490860905</v>
       </c>
     </row>
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -10332,15 +10904,21 @@
       </c>
       <c r="AY53" s="20">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ53" s="20">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA53" s="20">
+        <v>811.50298591846297</v>
       </c>
     </row>
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -10485,15 +11063,21 @@
       </c>
       <c r="AY54" s="22">
         <v>9.2356519226185707</v>
+      </c>
+      <c r="AZ54" s="22">
+        <v>9.2960245877014192</v>
+      </c>
+      <c r="BA54" s="22">
+        <v>9.29458292636326</v>
       </c>
     </row>
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -10638,15 +11222,21 @@
       </c>
       <c r="AY55" s="20">
         <v>2.5133218695306998</v>
+      </c>
+      <c r="AZ55" s="20">
+        <v>2.5020015418068802</v>
+      </c>
+      <c r="BA55" s="20">
+        <v>2.5055451608394899</v>
       </c>
     </row>
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -10791,15 +11381,21 @@
       </c>
       <c r="AY56" s="22">
         <v>2.5133218695306998</v>
+      </c>
+      <c r="AZ56" s="22">
+        <v>2.5020015418068802</v>
+      </c>
+      <c r="BA56" s="22">
+        <v>2.5055451608394899</v>
       </c>
     </row>
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -10944,15 +11540,21 @@
       </c>
       <c r="AY57" s="20">
         <v>31.2382038845358</v>
+      </c>
+      <c r="AZ57" s="20">
+        <v>31.233086285851801</v>
+      </c>
+      <c r="BA57" s="20" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -11097,15 +11699,21 @@
       </c>
       <c r="AY58" s="22">
         <v>9.1501828881782004</v>
+      </c>
+      <c r="AZ58" s="22">
+        <v>9.1966893956501607</v>
+      </c>
+      <c r="BA58" s="22">
+        <v>9.2060487882320405</v>
       </c>
     </row>
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -11250,15 +11858,21 @@
       </c>
       <c r="AY59" s="20">
         <v>249.53635529322099</v>
+      </c>
+      <c r="AZ59" s="20">
+        <v>248.412411179587</v>
+      </c>
+      <c r="BA59" s="20">
+        <v>248.76424107796299</v>
       </c>
     </row>
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -11403,15 +12017,21 @@
       </c>
       <c r="AY60" s="22">
         <v>3.7910441607446401</v>
+      </c>
+      <c r="AZ60" s="22">
+        <v>3.7739688060774101</v>
+      </c>
+      <c r="BA60" s="22">
+        <v>3.7793139297578802</v>
       </c>
     </row>
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -11556,15 +12176,21 @@
       </c>
       <c r="AY61" s="20">
         <v>79.642255728923303</v>
+      </c>
+      <c r="AZ61" s="20">
+        <v>79.896457167505801</v>
+      </c>
+      <c r="BA61" s="20" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -11709,15 +12335,21 @@
       </c>
       <c r="AY62" s="22">
         <v>1.40409042990542</v>
+      </c>
+      <c r="AZ62" s="22">
+        <v>1.3977662244731199</v>
+      </c>
+      <c r="BA62" s="22">
+        <v>1.39974589991033</v>
       </c>
     </row>
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -11862,15 +12494,21 @@
       </c>
       <c r="AY63" s="20">
         <v>21.9888794398892</v>
+      </c>
+      <c r="AZ63" s="20">
+        <v>21.891128431551401</v>
+      </c>
+      <c r="BA63" s="20" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -12015,15 +12653,21 @@
       </c>
       <c r="AY64" s="22">
         <v>1.40409042990542</v>
+      </c>
+      <c r="AZ64" s="22">
+        <v>1.3977662244731199</v>
+      </c>
+      <c r="BA64" s="22">
+        <v>1.39974589991033</v>
       </c>
     </row>
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -12168,15 +12812,21 @@
       </c>
       <c r="AY65" s="20">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ65" s="20">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA65" s="20">
+        <v>811.50298591846297</v>
       </c>
     </row>
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -12321,15 +12971,21 @@
       </c>
       <c r="AY66" s="22">
         <v>21.166663230824199</v>
+      </c>
+      <c r="AZ66" s="22">
+        <v>21.0713258339322</v>
+      </c>
+      <c r="BA66" s="22">
+        <v>21.101169441148201</v>
       </c>
     </row>
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -12474,15 +13130,21 @@
       </c>
       <c r="AY67" s="20">
         <v>21.781034499334002</v>
+      </c>
+      <c r="AZ67" s="20">
+        <v>22.1819065766176</v>
+      </c>
+      <c r="BA67" s="20">
+        <v>21.695795496889101</v>
       </c>
     </row>
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -12611,31 +13273,37 @@
         <v>61.273317781734001</v>
       </c>
       <c r="AT68" s="22" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AU68" s="22" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="AV68" s="22" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="AW68" s="22" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="AX68" s="22" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="AY68" s="22" t="s">
-        <v>229</v>
+        <v>246</v>
+      </c>
+      <c r="AZ68" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="BA68" s="22" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -12780,15 +13448,21 @@
       </c>
       <c r="AY69" s="20">
         <v>1.23014266545282</v>
+      </c>
+      <c r="AZ69" s="20">
+        <v>1.2365473336313699</v>
+      </c>
+      <c r="BA69" s="20">
+        <v>1.23712832688494</v>
       </c>
     </row>
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -12933,15 +13607,21 @@
       </c>
       <c r="AY70" s="22">
         <v>2.94662417619951</v>
+      </c>
+      <c r="AZ70" s="22">
+        <v>2.9771022815052901</v>
+      </c>
+      <c r="BA70" s="22" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -13086,15 +13766,21 @@
       </c>
       <c r="AY71" s="20">
         <v>146.795015511016</v>
+      </c>
+      <c r="AZ71" s="20">
+        <v>147.559295452698</v>
+      </c>
+      <c r="BA71" s="20">
+        <v>147.62862636533501</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -13239,15 +13925,21 @@
       </c>
       <c r="AY72" s="22">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ72" s="22">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA72" s="22">
+        <v>811.50298591846297</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -13385,22 +14077,28 @@
         <v>72.653933039154296</v>
       </c>
       <c r="AW73" s="20" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AX73" s="20" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AY73" s="20" t="s">
-        <v>242</v>
+        <v>262</v>
+      </c>
+      <c r="AZ73" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA73" s="20" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -13545,15 +14243,21 @@
       </c>
       <c r="AY74" s="22">
         <v>4.4051933147852704</v>
+      </c>
+      <c r="AZ74" s="22">
+        <v>4.3312581997748403</v>
+      </c>
+      <c r="BA74" s="22">
+        <v>4.3116372954937798</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -13697,16 +14401,22 @@
         <v>8.3097337506708993</v>
       </c>
       <c r="AY75" s="20" t="s">
-        <v>247</v>
+        <v>269</v>
+      </c>
+      <c r="AZ75" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA75" s="20" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -13851,15 +14561,21 @@
       </c>
       <c r="AY76" s="22">
         <v>1.0418613018015599</v>
+      </c>
+      <c r="AZ76" s="22">
+        <v>1.05311090253762</v>
+      </c>
+      <c r="BA76" s="22">
+        <v>1.03324554713858</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -14004,15 +14720,21 @@
       </c>
       <c r="AY77" s="20">
         <v>3.7910441607446401</v>
+      </c>
+      <c r="AZ77" s="20">
+        <v>3.7739688060774101</v>
+      </c>
+      <c r="BA77" s="20">
+        <v>3.7793139297578802</v>
       </c>
     </row>
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -14157,15 +14879,21 @@
       </c>
       <c r="AY78" s="22">
         <v>10.853576900456</v>
+      </c>
+      <c r="AZ78" s="22">
+        <v>10.796458139128299</v>
+      </c>
+      <c r="BA78" s="22">
+        <v>10.775908816812199</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -14310,15 +15038,21 @@
       </c>
       <c r="AY79" s="20">
         <v>1.0418613018015599</v>
+      </c>
+      <c r="AZ79" s="20">
+        <v>1.05311090253762</v>
+      </c>
+      <c r="BA79" s="20">
+        <v>1.03324554713858</v>
       </c>
     </row>
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -14447,31 +15181,37 @@
         <v>14111.720714393399</v>
       </c>
       <c r="AT80" s="22" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="AU80" s="22" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="AV80" s="22" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="AW80" s="22" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="AX80" s="22" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="AY80" s="22" t="s">
-        <v>263</v>
+        <v>287</v>
+      </c>
+      <c r="AZ80" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="BA80" s="22" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -14616,15 +15356,21 @@
       </c>
       <c r="AY81" s="20">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ81" s="20">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA81" s="20">
+        <v>811.50298591846297</v>
       </c>
     </row>
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -14767,17 +15513,23 @@
       <c r="AX82" s="22">
         <v>294.53615650327799</v>
       </c>
-      <c r="AY82" s="22" t="s">
-        <v>268</v>
+      <c r="AY82" s="22">
+        <v>292.75285463528002</v>
+      </c>
+      <c r="AZ82" s="22">
+        <v>291.43425780264499</v>
+      </c>
+      <c r="BA82" s="22" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -14915,22 +15667,28 @@
         <v>136.81223084511299</v>
       </c>
       <c r="AW83" s="20" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="AX83" s="20" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="AY83" s="20" t="s">
-        <v>273</v>
+        <v>299</v>
+      </c>
+      <c r="AZ83" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="BA83" s="20" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -15075,15 +15833,21 @@
       </c>
       <c r="AY84" s="22">
         <v>33.848273966916103</v>
+      </c>
+      <c r="AZ84" s="22">
+        <v>33.887316723992697</v>
+      </c>
+      <c r="BA84" s="22" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -15228,15 +15992,21 @@
       </c>
       <c r="AY85" s="20">
         <v>449.02811948375302</v>
+      </c>
+      <c r="AZ85" s="20">
+        <v>454.23208996702903</v>
+      </c>
+      <c r="BA85" s="20" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -15381,15 +16151,21 @@
       </c>
       <c r="AY86" s="22">
         <v>183.50313117603</v>
+      </c>
+      <c r="AZ86" s="22">
+        <v>181.95612431564001</v>
+      </c>
+      <c r="BA86" s="22" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -15533,16 +16309,22 @@
         <v>105.828584531027</v>
       </c>
       <c r="AY87" s="20">
-        <v>104.58095834355601</v>
+        <v>104.599837491348</v>
+      </c>
+      <c r="AZ87" s="20">
+        <v>105.35316514032201</v>
+      </c>
+      <c r="BA87" s="20">
+        <v>104.208768984047</v>
       </c>
     </row>
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -15687,15 +16469,21 @@
       </c>
       <c r="AY88" s="22">
         <v>20027.247995405</v>
+      </c>
+      <c r="AZ88" s="22">
+        <v>20028.474635795101</v>
+      </c>
+      <c r="BA88" s="22">
+        <v>20065.6940807762</v>
       </c>
     </row>
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -15840,15 +16628,21 @@
       </c>
       <c r="AY89" s="20">
         <v>58971.798056027699</v>
+      </c>
+      <c r="AZ89" s="20">
+        <v>58706.181427870899</v>
+      </c>
+      <c r="BA89" s="20">
+        <v>58789.327796233803</v>
       </c>
     </row>
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -15988,20 +16782,26 @@
       <c r="AW90" s="22">
         <v>2059.9522466482099</v>
       </c>
-      <c r="AX90" s="22" t="s">
-        <v>288</v>
+      <c r="AX90" s="22">
+        <v>2048.33298287651</v>
       </c>
       <c r="AY90" s="22" t="s">
-        <v>289</v>
+        <v>319</v>
+      </c>
+      <c r="AZ90" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="BA90" s="22" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -16146,15 +16946,21 @@
       </c>
       <c r="AY91" s="20">
         <v>1.0418613018015599</v>
+      </c>
+      <c r="AZ91" s="20">
+        <v>1.05311090253762</v>
+      </c>
+      <c r="BA91" s="20">
+        <v>1.03324554713858</v>
       </c>
     </row>
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -16299,15 +17105,21 @@
       </c>
       <c r="AY92" s="22">
         <v>4.3814641865198602</v>
+      </c>
+      <c r="AZ92" s="22">
+        <v>4.3778038150498002</v>
+      </c>
+      <c r="BA92" s="22">
+        <v>4.3872702322855996</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -16445,22 +17257,28 @@
         <v>218.40300610627901</v>
       </c>
       <c r="AW93" s="20" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="AX93" s="20" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="AY93" s="20" t="s">
-        <v>298</v>
+        <v>330</v>
+      </c>
+      <c r="AZ93" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="BA93" s="20" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -16605,15 +17423,21 @@
       </c>
       <c r="AY94" s="22">
         <v>160.09127061686101</v>
+      </c>
+      <c r="AZ94" s="22">
+        <v>158.809265132078</v>
+      </c>
+      <c r="BA94" s="22">
+        <v>160.76626006097899</v>
       </c>
     </row>
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -16758,15 +17582,21 @@
       </c>
       <c r="AY95" s="20">
         <v>1.0418613018015599</v>
+      </c>
+      <c r="AZ95" s="20">
+        <v>1.05311090253762</v>
+      </c>
+      <c r="BA95" s="20">
+        <v>1.03324554713858</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -16911,15 +17741,21 @@
       </c>
       <c r="AY96" s="22">
         <v>0.99690420523284895</v>
+      </c>
+      <c r="AZ96" s="22">
+        <v>0.992414019375912</v>
+      </c>
+      <c r="BA96" s="22">
+        <v>0.99381958893633204</v>
       </c>
     </row>
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -17064,15 +17900,21 @@
       </c>
       <c r="AY97" s="20">
         <v>603.50614858194797</v>
+      </c>
+      <c r="AZ97" s="20">
+        <v>606.79827336826895</v>
+      </c>
+      <c r="BA97" s="20" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -17217,15 +18059,21 @@
       </c>
       <c r="AY98" s="22">
         <v>157.14182140737901</v>
+      </c>
+      <c r="AZ98" s="22">
+        <v>157.82644362600701</v>
+      </c>
+      <c r="BA98" s="22">
+        <v>158.70456243173501</v>
       </c>
     </row>
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -17370,15 +18218,21 @@
       </c>
       <c r="AY99" s="20">
         <v>1.91994464900983</v>
+      </c>
+      <c r="AZ99" s="20">
+        <v>1.9547615717648601</v>
+      </c>
+      <c r="BA99" s="20" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -17522,16 +18376,22 @@
         <v>1670.90290952138</v>
       </c>
       <c r="AY100" s="22">
-        <v>1660.0420743728801</v>
+        <v>1660.91261043942</v>
+      </c>
+      <c r="AZ100" s="22">
+        <v>1654.4240586108699</v>
+      </c>
+      <c r="BA100" s="22">
+        <v>1671.7754649323699</v>
       </c>
     </row>
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -17676,15 +18536,21 @@
       </c>
       <c r="AY101" s="20">
         <v>1.23014266545282</v>
+      </c>
+      <c r="AZ101" s="20">
+        <v>1.2365473336313699</v>
+      </c>
+      <c r="BA101" s="20">
+        <v>1.23712832688494</v>
       </c>
     </row>
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -17829,15 +18695,21 @@
       </c>
       <c r="AY102" s="22">
         <v>0.42426244210686298</v>
+      </c>
+      <c r="AZ102" s="22">
+        <v>0.422952411473694</v>
+      </c>
+      <c r="BA102" s="22">
+        <v>0.42338814107537598</v>
       </c>
     </row>
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -17982,15 +18854,21 @@
       </c>
       <c r="AY103" s="20">
         <v>119.054409493565</v>
+      </c>
+      <c r="AZ103" s="20">
+        <v>118.52014669571599</v>
+      </c>
+      <c r="BA103" s="20">
+        <v>118.69143100634901</v>
       </c>
     </row>
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -18133,17 +19011,23 @@
       <c r="AX104" s="22">
         <v>14164.928898309299</v>
       </c>
-      <c r="AY104" s="22" t="s">
-        <v>321</v>
+      <c r="AY104" s="22">
+        <v>14738.2904866713</v>
+      </c>
+      <c r="AZ104" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="BA104" s="22" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -18288,15 +19172,21 @@
       </c>
       <c r="AY105" s="20">
         <v>2116.6663230824201</v>
+      </c>
+      <c r="AZ105" s="20">
+        <v>2107.1325833932201</v>
+      </c>
+      <c r="BA105" s="20">
+        <v>2110.1169441148199</v>
       </c>
     </row>
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -18441,15 +19331,21 @@
       </c>
       <c r="AY106" s="22">
         <v>21.781034499334002</v>
+      </c>
+      <c r="AZ106" s="22">
+        <v>22.1819065766176</v>
+      </c>
+      <c r="BA106" s="22">
+        <v>21.695795496889101</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -18587,22 +19483,28 @@
         <v>244.12468651827299</v>
       </c>
       <c r="AW107" s="20" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AX107" s="20" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="AY107" s="20" t="s">
-        <v>330</v>
+        <v>367</v>
+      </c>
+      <c r="AZ107" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="BA107" s="20" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -18713,49 +19615,55 @@
         <v>1.9381163522996301</v>
       </c>
       <c r="AN108" s="22" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="AO108" s="22" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="AP108" s="22" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="AQ108" s="22" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="AR108" s="22" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="AS108" s="22" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="AT108" s="22" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="AU108" s="22" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="AV108" s="22" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="AW108" s="22" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="AX108" s="22" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="AY108" s="22" t="s">
-        <v>344</v>
+        <v>383</v>
+      </c>
+      <c r="AZ108" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="BA108" s="22" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -18892,23 +19800,29 @@
       <c r="AV109" s="20">
         <v>5435.8847781357699</v>
       </c>
-      <c r="AW109" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="AX109" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="AY109" s="20" t="s">
-        <v>349</v>
+      <c r="AW109" s="20">
+        <v>5513.4938300536496</v>
+      </c>
+      <c r="AX109" s="20">
+        <v>5549.2226334859297</v>
+      </c>
+      <c r="AY109" s="20">
+        <v>5555.6441691311402</v>
+      </c>
+      <c r="AZ109" s="20">
+        <v>5524.8267533235803</v>
+      </c>
+      <c r="BA109" s="20" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -19049,19 +19963,25 @@
         <v>1165.7044779849</v>
       </c>
       <c r="AX110" s="22" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="AY110" s="22" t="s">
-        <v>353</v>
+        <v>392</v>
+      </c>
+      <c r="AZ110" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="BA110" s="22" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -19206,15 +20126,21 @@
       </c>
       <c r="AY111" s="20">
         <v>5.8693587566559202</v>
+      </c>
+      <c r="AZ111" s="20">
+        <v>5.8847477361431704</v>
+      </c>
+      <c r="BA111" s="20" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -19359,15 +20285,21 @@
       </c>
       <c r="AY112" s="22">
         <v>21.6080156559578</v>
+      </c>
+      <c r="AZ112" s="22">
+        <v>21.515229333285099</v>
+      </c>
+      <c r="BA112" s="22" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -19512,15 +20444,21 @@
       </c>
       <c r="AY113" s="20">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ113" s="20">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA113" s="20">
+        <v>811.50298591846297</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -19649,31 +20587,37 @@
         <v>51.80477936554</v>
       </c>
       <c r="AT114" s="22" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="AU114" s="22" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="AV114" s="22" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="AW114" s="22" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="AX114" s="22" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="AY114" s="22" t="s">
-        <v>367</v>
+        <v>410</v>
+      </c>
+      <c r="AZ114" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="BA114" s="22" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -19818,15 +20762,21 @@
       </c>
       <c r="AY115" s="20">
         <v>60.675802201760902</v>
+      </c>
+      <c r="AZ115" s="20">
+        <v>60.752650957122</v>
+      </c>
+      <c r="BA115" s="20" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -19971,15 +20921,21 @@
       </c>
       <c r="AY116" s="22">
         <v>29.183036722283202</v>
+      </c>
+      <c r="AZ116" s="22">
+        <v>29.335339082884602</v>
+      </c>
+      <c r="BA116" s="22">
+        <v>28.6575577072241</v>
       </c>
     </row>
     <row r="117" ht="24.000000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -20124,15 +21080,21 @@
       </c>
       <c r="AY117" s="20">
         <v>1.40409042990542</v>
+      </c>
+      <c r="AZ117" s="20">
+        <v>1.3977662244731199</v>
+      </c>
+      <c r="BA117" s="20">
+        <v>1.39974589991033</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -20275,17 +21237,23 @@
       <c r="AX118" s="22">
         <v>24.664444530533</v>
       </c>
-      <c r="AY118" s="22" t="s">
-        <v>376</v>
+      <c r="AY118" s="22">
+        <v>24.716999488868801</v>
+      </c>
+      <c r="AZ118" s="22">
+        <v>24.793306754305799</v>
+      </c>
+      <c r="BA118" s="22" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -20423,22 +21391,28 @@
         <v>4050.4577344320701</v>
       </c>
       <c r="AW119" s="20" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="AX119" s="20" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="AY119" s="20" t="s">
-        <v>381</v>
+        <v>427</v>
+      </c>
+      <c r="AZ119" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="BA119" s="20" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -20583,15 +21557,21 @@
       </c>
       <c r="AY120" s="22">
         <v>1.23014266545282</v>
+      </c>
+      <c r="AZ120" s="22">
+        <v>1.2365473336313699</v>
+      </c>
+      <c r="BA120" s="22">
+        <v>1.23712832688494</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -20736,15 +21716,21 @@
       </c>
       <c r="AY121" s="20">
         <v>3.7910441607446401</v>
+      </c>
+      <c r="AZ121" s="20">
+        <v>3.7739688060774101</v>
+      </c>
+      <c r="BA121" s="20">
+        <v>3.7793139297578802</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -20887,17 +21873,23 @@
       <c r="AX122" s="22">
         <v>12.798683363765299</v>
       </c>
-      <c r="AY122" s="22" t="s">
-        <v>388</v>
+      <c r="AY122" s="22">
+        <v>12.854180439987999</v>
+      </c>
+      <c r="AZ122" s="22">
+        <v>12.9341872174508</v>
+      </c>
+      <c r="BA122" s="22" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -21040,17 +22032,23 @@
       <c r="AX123" s="20">
         <v>90.169030549660604</v>
       </c>
-      <c r="AY123" s="20" t="s">
-        <v>391</v>
+      <c r="AY123" s="20">
+        <v>89.623092140862994</v>
+      </c>
+      <c r="AZ123" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="BA123" s="20" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -21173,37 +22171,43 @@
         <v>2044.2286967290399</v>
       </c>
       <c r="AR124" s="22" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="AS124" s="22" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="AT124" s="22" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="AU124" s="22" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="AV124" s="22" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="AW124" s="22" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="AX124" s="22" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="AY124" s="22" t="s">
-        <v>401</v>
+        <v>450</v>
+      </c>
+      <c r="AZ124" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="BA124" s="22" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -21348,15 +22352,21 @@
       </c>
       <c r="AY125" s="20">
         <v>21.7810932029508</v>
+      </c>
+      <c r="AZ125" s="20">
+        <v>22.181851099276098</v>
+      </c>
+      <c r="BA125" s="20" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -21501,15 +22511,21 @@
       </c>
       <c r="AY126" s="22">
         <v>1.91994464900983</v>
+      </c>
+      <c r="AZ126" s="22">
+        <v>1.9547615717648601</v>
+      </c>
+      <c r="BA126" s="22" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -21652,17 +22668,23 @@
       <c r="AX127" s="20">
         <v>167.99201315603401</v>
       </c>
-      <c r="AY127" s="20" t="s">
-        <v>408</v>
+      <c r="AY127" s="20">
+        <v>167.86415922677</v>
+      </c>
+      <c r="AZ127" s="20">
+        <v>167.688085996626</v>
+      </c>
+      <c r="BA127" s="20" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -21807,15 +22829,21 @@
       </c>
       <c r="AY128" s="22">
         <v>146.795015511016</v>
+      </c>
+      <c r="AZ128" s="22">
+        <v>147.559295452698</v>
+      </c>
+      <c r="BA128" s="22">
+        <v>147.62862636533501</v>
       </c>
     </row>
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -21960,15 +22988,21 @@
       </c>
       <c r="AY129" s="20">
         <v>1.9984419088843901</v>
+      </c>
+      <c r="AZ129" s="20">
+        <v>2.06002786162848</v>
+      </c>
+      <c r="BA129" s="20">
+        <v>2.0765175916582899</v>
       </c>
     </row>
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -22097,31 +23131,37 @@
         <v>50.526438465766503</v>
       </c>
       <c r="AT130" s="22" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="AU130" s="22" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="AV130" s="22" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="AW130" s="22" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="AX130" s="22" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="AY130" s="22" t="s">
-        <v>420</v>
+        <v>473</v>
+      </c>
+      <c r="AZ130" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="BA130" s="22" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -22266,15 +23306,21 @@
       </c>
       <c r="AY131" s="20">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ131" s="20">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA131" s="20">
+        <v>811.50298591846297</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -22418,16 +23464,22 @@
         <v>581.30277410599001</v>
       </c>
       <c r="AY132" s="22" t="s">
-        <v>425</v>
+        <v>480</v>
+      </c>
+      <c r="AZ132" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="BA132" s="22" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -22572,15 +23624,21 @@
       </c>
       <c r="AY133" s="20">
         <v>75.899371869924394</v>
+      </c>
+      <c r="AZ133" s="20">
+        <v>76.261985430630801</v>
+      </c>
+      <c r="BA133" s="20" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -22725,15 +23783,21 @@
       </c>
       <c r="AY134" s="22">
         <v>12.2577094530743</v>
+      </c>
+      <c r="AZ134" s="22">
+        <v>12.5379630335239</v>
+      </c>
+      <c r="BA134" s="22">
+        <v>12.3883111125664</v>
       </c>
     </row>
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>430</v>
+        <v>488</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>431</v>
+        <v>489</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -22878,15 +23942,21 @@
       </c>
       <c r="AY135" s="20">
         <v>0.53987277029863401</v>
+      </c>
+      <c r="AZ135" s="20">
+        <v>0.53744111330991295</v>
+      </c>
+      <c r="BA135" s="20">
+        <v>0.53820229851552104</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>432</v>
+        <v>490</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -23031,15 +24101,21 @@
       </c>
       <c r="AY136" s="22">
         <v>243.57633605865001</v>
+      </c>
+      <c r="AZ136" s="22">
+        <v>248.18180406152601</v>
+      </c>
+      <c r="BA136" s="22" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -23184,15 +24260,21 @@
       </c>
       <c r="AY137" s="20">
         <v>1.40409042990542</v>
+      </c>
+      <c r="AZ137" s="20">
+        <v>1.3977662244731199</v>
+      </c>
+      <c r="BA137" s="20">
+        <v>1.39974589991033</v>
       </c>
     </row>
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -23337,15 +24419,21 @@
       </c>
       <c r="AY138" s="22">
         <v>1.40409042990542</v>
+      </c>
+      <c r="AZ138" s="22">
+        <v>1.3977662244731199</v>
+      </c>
+      <c r="BA138" s="22">
+        <v>1.39974589991033</v>
       </c>
     </row>
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -23489,16 +24577,22 @@
         <v>4.9566436367247801</v>
       </c>
       <c r="AY139" s="20" t="s">
-        <v>440</v>
+        <v>499</v>
+      </c>
+      <c r="AZ139" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="BA139" s="20" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>441</v>
+        <v>502</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>442</v>
+        <v>503</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -23643,15 +24737,21 @@
       </c>
       <c r="AY140" s="22">
         <v>9625.9484073321</v>
+      </c>
+      <c r="AZ140" s="22">
+        <v>9526.5356071632905</v>
+      </c>
+      <c r="BA140" s="22" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -23785,26 +24885,32 @@
       <c r="AU141" s="20">
         <v>5.6076240754522102</v>
       </c>
-      <c r="AV141" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="AW141" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="AX141" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="AY141" s="20" t="s">
-        <v>448</v>
+      <c r="AV141" s="20">
+        <v>5.80957454683612</v>
+      </c>
+      <c r="AW141" s="20">
+        <v>5.8353151972489803</v>
+      </c>
+      <c r="AX141" s="20">
+        <v>5.67183402958507</v>
+      </c>
+      <c r="AY141" s="20">
+        <v>5.6438752059029298</v>
+      </c>
+      <c r="AZ141" s="20">
+        <v>5.6427504807837696</v>
+      </c>
+      <c r="BA141" s="20" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -23949,15 +25055,21 @@
       </c>
       <c r="AY142" s="22">
         <v>70.705851983268801</v>
+      </c>
+      <c r="AZ142" s="22">
+        <v>70.234691006139499</v>
+      </c>
+      <c r="BA142" s="22" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>451</v>
+        <v>511</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -24102,15 +25214,21 @@
       </c>
       <c r="AY143" s="20">
         <v>5.7223705470795396</v>
+      </c>
+      <c r="AZ143" s="20">
+        <v>5.7076386010135201</v>
+      </c>
+      <c r="BA143" s="20" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>453</v>
+        <v>514</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -24255,15 +25373,21 @@
       </c>
       <c r="AY144" s="22">
         <v>5.1108891648557302</v>
+      </c>
+      <c r="AZ144" s="22">
+        <v>5.0878690570821403</v>
+      </c>
+      <c r="BA144" s="22">
+        <v>5.0950750756735896</v>
       </c>
     </row>
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -24406,17 +25530,23 @@
       <c r="AX145" s="20">
         <v>6.0266194286536496</v>
       </c>
-      <c r="AY145" s="20" t="s">
-        <v>457</v>
+      <c r="AY145" s="20">
+        <v>6.0860299684250503</v>
+      </c>
+      <c r="AZ145" s="20">
+        <v>6.1206785203453302</v>
+      </c>
+      <c r="BA145" s="20" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -24561,15 +25691,21 @@
       </c>
       <c r="AY146" s="22">
         <v>101.91786958128699</v>
+      </c>
+      <c r="AZ146" s="22">
+        <v>103.03829410975</v>
+      </c>
+      <c r="BA146" s="22" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>460</v>
+        <v>522</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>461</v>
+        <v>523</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -24714,15 +25850,21 @@
       </c>
       <c r="AY147" s="20">
         <v>1404.1353032314701</v>
+      </c>
+      <c r="AZ147" s="20">
+        <v>1409.2427364156699</v>
+      </c>
+      <c r="BA147" s="20" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -24865,17 +26007,23 @@
       <c r="AX148" s="22">
         <v>3.6240211299809202</v>
       </c>
-      <c r="AY148" s="22" t="s">
-        <v>464</v>
+      <c r="AY148" s="22">
+        <v>3.6169252934857901</v>
+      </c>
+      <c r="AZ148" s="22">
+        <v>3.6562025148359698</v>
+      </c>
+      <c r="BA148" s="22">
+        <v>3.6596915301941801</v>
       </c>
     </row>
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>465</v>
+        <v>527</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>466</v>
+        <v>528</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -25020,15 +26168,21 @@
       </c>
       <c r="AY149" s="20">
         <v>1.23014266545282</v>
+      </c>
+      <c r="AZ149" s="20">
+        <v>1.2365473336313699</v>
+      </c>
+      <c r="BA149" s="20">
+        <v>1.23712832688494</v>
       </c>
     </row>
     <row r="150" ht="24.000000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>468</v>
+        <v>530</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -25148,40 +26302,46 @@
         <v>29.153641875437401</v>
       </c>
       <c r="AQ150" s="22" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="AR150" s="22" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="AS150" s="22" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="AT150" s="22" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="AU150" s="22" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="AV150" s="22" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="AW150" s="22" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="AX150" s="22" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="AY150" s="22" t="s">
-        <v>477</v>
+        <v>539</v>
+      </c>
+      <c r="AZ150" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="BA150" s="22" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -25326,15 +26486,21 @@
       </c>
       <c r="AY151" s="20">
         <v>5.2653391121453303</v>
+      </c>
+      <c r="AZ151" s="20">
+        <v>5.2416233417741802</v>
+      </c>
+      <c r="BA151" s="20">
+        <v>5.24904712466373</v>
       </c>
     </row>
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>481</v>
+        <v>545</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -25479,15 +26645,21 @@
       </c>
       <c r="AY152" s="22">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ152" s="22">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA152" s="22">
+        <v>811.50298591846297</v>
       </c>
     </row>
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>482</v>
+        <v>546</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -25632,15 +26804,21 @@
       </c>
       <c r="AY153" s="20">
         <v>144.65824185856499</v>
+      </c>
+      <c r="AZ153" s="20">
+        <v>145.38893339181601</v>
+      </c>
+      <c r="BA153" s="20">
+        <v>145.33211742294</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -25780,20 +26958,26 @@
       <c r="AW154" s="22">
         <v>20.3396068616935</v>
       </c>
-      <c r="AX154" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="AY154" s="22" t="s">
-        <v>487</v>
+      <c r="AX154" s="22">
+        <v>20.7435858378768</v>
+      </c>
+      <c r="AY154" s="22">
+        <v>20.6251055520097</v>
+      </c>
+      <c r="AZ154" s="22">
+        <v>20.544031232715401</v>
+      </c>
+      <c r="BA154" s="22">
+        <v>20.454003923054099</v>
       </c>
     </row>
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -25937,16 +27121,22 @@
         <v>15090.916670913201</v>
       </c>
       <c r="AY155" s="20" t="s">
-        <v>490</v>
+        <v>552</v>
+      </c>
+      <c r="AZ155" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="BA155" s="20" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -26091,15 +27281,21 @@
       </c>
       <c r="AY156" s="22">
         <v>1.9059123495536201</v>
+      </c>
+      <c r="AZ156" s="22">
+        <v>1.90543491720175</v>
+      </c>
+      <c r="BA156" s="22">
+        <v>1.8904968124188899</v>
       </c>
     </row>
     <row r="157" ht="24.000000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -26244,15 +27440,21 @@
       </c>
       <c r="AY157" s="20">
         <v>2.5133218695306998</v>
+      </c>
+      <c r="AZ157" s="20">
+        <v>2.5020015418068802</v>
+      </c>
+      <c r="BA157" s="20">
+        <v>2.5055451608394899</v>
       </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -26381,31 +27583,37 @@
         <v>11.4955723120845</v>
       </c>
       <c r="AT158" s="22" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
       <c r="AU158" s="22" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="AV158" s="22" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="AW158" s="22" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="AX158" s="22" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="AY158" s="22" t="s">
-        <v>502</v>
+        <v>566</v>
+      </c>
+      <c r="AZ158" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="BA158" s="22" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -26429,136 +27637,142 @@
         <v>33343.625668374101</v>
       </c>
       <c r="K159" s="20" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
       <c r="L159" s="20" t="s">
-        <v>506</v>
+        <v>572</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>507</v>
+        <v>573</v>
       </c>
       <c r="N159" s="20" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
       <c r="O159" s="20" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="P159" s="20" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
       <c r="Q159" s="20" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="R159" s="20" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="S159" s="20" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="T159" s="20" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="U159" s="20" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="V159" s="20" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="W159" s="20" t="s">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="X159" s="20" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
       <c r="Y159" s="20" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="Z159" s="20" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="AA159" s="20" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="AB159" s="20" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="AC159" s="20" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="AD159" s="20" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="AE159" s="20" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="AF159" s="20" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="AG159" s="20" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="AH159" s="20" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="AI159" s="20" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
       <c r="AJ159" s="20" t="s">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="AK159" s="20" t="s">
-        <v>531</v>
+        <v>597</v>
       </c>
       <c r="AL159" s="20" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="AM159" s="20" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="AN159" s="20" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="AO159" s="20" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="AP159" s="20" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="AQ159" s="20" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="AR159" s="20" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="AS159" s="20" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="AT159" s="20" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
       <c r="AU159" s="20" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
       <c r="AV159" s="20" t="s">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="AW159" s="20" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="AX159" s="20" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="AY159" s="20" t="s">
-        <v>545</v>
+        <v>611</v>
+      </c>
+      <c r="AZ159" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="BA159" s="20" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>546</v>
+        <v>614</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>547</v>
+        <v>615</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -26703,15 +27917,21 @@
       </c>
       <c r="AY160" s="22">
         <v>21.781034499334002</v>
+      </c>
+      <c r="AZ160" s="22">
+        <v>22.1819065766176</v>
+      </c>
+      <c r="BA160" s="22">
+        <v>21.695795496889101</v>
       </c>
     </row>
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>548</v>
+        <v>616</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -26856,15 +28076,21 @@
       </c>
       <c r="AY161" s="20">
         <v>578.915210672027</v>
+      </c>
+      <c r="AZ161" s="20">
+        <v>587.89376473551499</v>
+      </c>
+      <c r="BA161" s="20" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -26984,40 +28210,46 @@
         <v>279.45170558869</v>
       </c>
       <c r="AQ162" s="22" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="AR162" s="22" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
       <c r="AS162" s="22" t="s">
-        <v>554</v>
+        <v>623</v>
       </c>
       <c r="AT162" s="22" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
       <c r="AU162" s="22" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="AV162" s="22" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="AW162" s="22" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="AX162" s="22" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="AY162" s="22" t="s">
-        <v>560</v>
+        <v>629</v>
+      </c>
+      <c r="AZ162" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="BA162" s="22" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>561</v>
+        <v>632</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>562</v>
+        <v>633</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -27162,15 +28394,21 @@
       </c>
       <c r="AY163" s="20">
         <v>3.7910441607446401</v>
+      </c>
+      <c r="AZ163" s="20">
+        <v>3.7739688060774101</v>
+      </c>
+      <c r="BA163" s="20">
+        <v>3.7793139297578802</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -27315,15 +28553,21 @@
       </c>
       <c r="AY164" s="22">
         <v>3.7910441607446401</v>
+      </c>
+      <c r="AZ164" s="22">
+        <v>3.7739688060774101</v>
+      </c>
+      <c r="BA164" s="22">
+        <v>3.7793139297578802</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -27468,15 +28712,21 @@
       </c>
       <c r="AY165" s="20">
         <v>3.7910441607446401</v>
+      </c>
+      <c r="AZ165" s="20">
+        <v>3.7739688060774101</v>
+      </c>
+      <c r="BA165" s="20">
+        <v>3.7793139297578802</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>567</v>
+        <v>638</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>568</v>
+        <v>639</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -27605,31 +28855,37 @@
         <v>585.57667243982996</v>
       </c>
       <c r="AT166" s="22" t="s">
-        <v>569</v>
+        <v>640</v>
       </c>
       <c r="AU166" s="22" t="s">
-        <v>570</v>
+        <v>641</v>
       </c>
       <c r="AV166" s="22" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
       <c r="AW166" s="22" t="s">
-        <v>572</v>
+        <v>643</v>
       </c>
       <c r="AX166" s="22" t="s">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="AY166" s="22" t="s">
-        <v>574</v>
+        <v>645</v>
+      </c>
+      <c r="AZ166" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="BA166" s="22" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>576</v>
+        <v>649</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -27758,7 +29014,7 @@
         <v>20.384899837082401</v>
       </c>
       <c r="AT167" s="20">
-        <v>28.0774381726855</v>
+        <v>28.0774446323212</v>
       </c>
       <c r="AU167" s="20">
         <v>30.133623050448499</v>
@@ -27772,17 +29028,23 @@
       <c r="AX167" s="20">
         <v>30.358985185654699</v>
       </c>
-      <c r="AY167" s="20" t="s">
-        <v>577</v>
+      <c r="AY167" s="20">
+        <v>30.2679071929497</v>
+      </c>
+      <c r="AZ167" s="20">
+        <v>30.117836570669201</v>
+      </c>
+      <c r="BA167" s="20" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>578</v>
+        <v>651</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -27927,15 +29189,21 @@
       </c>
       <c r="AY168" s="22">
         <v>12.3612036822168</v>
+      </c>
+      <c r="AZ168" s="22">
+        <v>12.702493430203599</v>
+      </c>
+      <c r="BA168" s="22">
+        <v>12.815326928432301</v>
       </c>
     </row>
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>581</v>
+        <v>654</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -28079,16 +29347,22 @@
         <v>1.30466097218306</v>
       </c>
       <c r="AY169" s="20">
-        <v>1.29505041899006</v>
+        <v>1.2943467219040099</v>
+      </c>
+      <c r="AZ169" s="20">
+        <v>1.28720291611729</v>
+      </c>
+      <c r="BA169" s="20">
+        <v>1.2870908505207901</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>582</v>
+        <v>655</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>583</v>
+        <v>656</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -28121,127 +29395,133 @@
         <v>611.21222523736901</v>
       </c>
       <c r="N170" s="22" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="O170" s="22" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="P170" s="22" t="s">
-        <v>586</v>
+        <v>659</v>
       </c>
       <c r="Q170" s="22" t="s">
-        <v>587</v>
+        <v>660</v>
       </c>
       <c r="R170" s="22" t="s">
-        <v>588</v>
+        <v>661</v>
       </c>
       <c r="S170" s="22" t="s">
-        <v>589</v>
+        <v>662</v>
       </c>
       <c r="T170" s="22" t="s">
-        <v>590</v>
+        <v>663</v>
       </c>
       <c r="U170" s="22" t="s">
-        <v>591</v>
+        <v>664</v>
       </c>
       <c r="V170" s="22" t="s">
-        <v>592</v>
+        <v>665</v>
       </c>
       <c r="W170" s="22" t="s">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="X170" s="22" t="s">
-        <v>594</v>
+        <v>667</v>
       </c>
       <c r="Y170" s="22" t="s">
-        <v>595</v>
+        <v>668</v>
       </c>
       <c r="Z170" s="22" t="s">
-        <v>596</v>
+        <v>669</v>
       </c>
       <c r="AA170" s="22" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
       <c r="AB170" s="22" t="s">
-        <v>598</v>
+        <v>671</v>
       </c>
       <c r="AC170" s="22" t="s">
-        <v>599</v>
+        <v>672</v>
       </c>
       <c r="AD170" s="22" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="AE170" s="22" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="AF170" s="22" t="s">
-        <v>602</v>
+        <v>675</v>
       </c>
       <c r="AG170" s="22" t="s">
-        <v>603</v>
+        <v>676</v>
       </c>
       <c r="AH170" s="22" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="AI170" s="22" t="s">
-        <v>605</v>
+        <v>678</v>
       </c>
       <c r="AJ170" s="22" t="s">
-        <v>606</v>
+        <v>679</v>
       </c>
       <c r="AK170" s="22" t="s">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="AL170" s="22" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="AM170" s="22" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
       <c r="AN170" s="22" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="AO170" s="22" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="AP170" s="22" t="s">
-        <v>612</v>
+        <v>685</v>
       </c>
       <c r="AQ170" s="22" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
       <c r="AR170" s="22" t="s">
-        <v>614</v>
+        <v>687</v>
       </c>
       <c r="AS170" s="22" t="s">
-        <v>615</v>
+        <v>688</v>
       </c>
       <c r="AT170" s="22" t="s">
-        <v>616</v>
+        <v>689</v>
       </c>
       <c r="AU170" s="22" t="s">
-        <v>617</v>
+        <v>690</v>
       </c>
       <c r="AV170" s="22" t="s">
-        <v>618</v>
+        <v>691</v>
       </c>
       <c r="AW170" s="22" t="s">
-        <v>619</v>
+        <v>692</v>
       </c>
       <c r="AX170" s="22" t="s">
-        <v>620</v>
+        <v>693</v>
       </c>
       <c r="AY170" s="22" t="s">
-        <v>621</v>
+        <v>694</v>
+      </c>
+      <c r="AZ170" s="22" t="s">
+        <v>695</v>
+      </c>
+      <c r="BA170" s="22" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>622</v>
+        <v>697</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>623</v>
+        <v>698</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -28384,17 +29664,23 @@
       <c r="AX171" s="20">
         <v>39.477733475494503</v>
       </c>
-      <c r="AY171" s="20" t="s">
-        <v>624</v>
+      <c r="AY171" s="20">
+        <v>39.058987579109001</v>
+      </c>
+      <c r="AZ171" s="20">
+        <v>38.803388157598199</v>
+      </c>
+      <c r="BA171" s="20" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>626</v>
+        <v>701</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -28534,20 +29820,26 @@
       <c r="AW172" s="22">
         <v>16.0801293030081</v>
       </c>
-      <c r="AX172" s="22" t="s">
-        <v>627</v>
-      </c>
-      <c r="AY172" s="22" t="s">
-        <v>628</v>
+      <c r="AX172" s="22">
+        <v>15.938714629308601</v>
+      </c>
+      <c r="AY172" s="22">
+        <v>15.8524617717182</v>
+      </c>
+      <c r="AZ172" s="22">
+        <v>15.7904252612503</v>
+      </c>
+      <c r="BA172" s="22" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>629</v>
+        <v>703</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -28667,40 +29959,46 @@
         <v>3309.8222282216302</v>
       </c>
       <c r="AQ173" s="20" t="s">
-        <v>631</v>
+        <v>705</v>
       </c>
       <c r="AR173" s="20" t="s">
-        <v>632</v>
+        <v>706</v>
       </c>
       <c r="AS173" s="20" t="s">
-        <v>633</v>
+        <v>707</v>
       </c>
       <c r="AT173" s="20" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
       <c r="AU173" s="20" t="s">
-        <v>635</v>
+        <v>709</v>
       </c>
       <c r="AV173" s="20" t="s">
-        <v>636</v>
+        <v>710</v>
       </c>
       <c r="AW173" s="20" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="AX173" s="20" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="AY173" s="20" t="s">
-        <v>639</v>
+        <v>713</v>
+      </c>
+      <c r="AZ173" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="BA173" s="20" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>640</v>
+        <v>716</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -28845,15 +30143,21 @@
       </c>
       <c r="AY174" s="22">
         <v>46.459456803489999</v>
+      </c>
+      <c r="AZ174" s="22">
+        <v>46.9140804293881</v>
+      </c>
+      <c r="BA174" s="22">
+        <v>46.528806117245502</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>643</v>
+        <v>719</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -28998,15 +30302,21 @@
       </c>
       <c r="AY175" s="20">
         <v>1.40409042990542</v>
+      </c>
+      <c r="AZ175" s="20">
+        <v>1.3977662244731199</v>
+      </c>
+      <c r="BA175" s="20">
+        <v>1.39974589991033</v>
       </c>
     </row>
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>644</v>
+        <v>720</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>645</v>
+        <v>721</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -29151,15 +30461,21 @@
       </c>
       <c r="AY176" s="22">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ176" s="22">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA176" s="22">
+        <v>811.50298591846297</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>646</v>
+        <v>722</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>647</v>
+        <v>723</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -29303,16 +30619,22 @@
         <v>3.1801317563662002</v>
       </c>
       <c r="AY177" s="20" t="s">
-        <v>648</v>
+        <v>724</v>
+      </c>
+      <c r="AZ177" s="20" t="s">
+        <v>725</v>
+      </c>
+      <c r="BA177" s="20" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>649</v>
+        <v>727</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>650</v>
+        <v>728</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -29457,15 +30779,21 @@
       </c>
       <c r="AY178" s="22">
         <v>9.4826799073085102</v>
+      </c>
+      <c r="AZ178" s="22">
+        <v>9.4578803254305104</v>
+      </c>
+      <c r="BA178" s="22">
+        <v>9.4680352390424396</v>
       </c>
     </row>
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>651</v>
+        <v>729</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>652</v>
+        <v>730</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -29610,15 +30938,21 @@
       </c>
       <c r="AY179" s="20">
         <v>4.0399893939668701</v>
+      </c>
+      <c r="AZ179" s="20">
+        <v>4.0659621703698496</v>
+      </c>
+      <c r="BA179" s="20" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>653</v>
+        <v>732</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>654</v>
+        <v>733</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -29763,15 +31097,21 @@
       </c>
       <c r="AY180" s="22">
         <v>14.8472570518938</v>
+      </c>
+      <c r="AZ180" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="BA180" s="22" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>655</v>
+        <v>736</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -29916,15 +31256,21 @@
       </c>
       <c r="AY181" s="20">
         <v>4986.6591686886804</v>
+      </c>
+      <c r="AZ181" s="20">
+        <v>4969.0473812374703</v>
+      </c>
+      <c r="BA181" s="20">
+        <v>4939.4702230912098</v>
       </c>
     </row>
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>658</v>
+        <v>739</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -30069,15 +31415,21 @@
       </c>
       <c r="AY182" s="22">
         <v>37.1328890426717</v>
+      </c>
+      <c r="AZ182" s="22">
+        <v>38.038061528998199</v>
+      </c>
+      <c r="BA182" s="22" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>659</v>
+        <v>741</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -30222,15 +31574,21 @@
       </c>
       <c r="AY183" s="20">
         <v>5.1565221038276601</v>
+      </c>
+      <c r="AZ183" s="20">
+        <v>5.1332964593775197</v>
+      </c>
+      <c r="BA183" s="20">
+        <v>5.1405668174206802</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -30375,15 +31733,21 @@
       </c>
       <c r="AY184" s="22">
         <v>1.0418613018015599</v>
+      </c>
+      <c r="AZ184" s="22">
+        <v>1.05311090253762</v>
+      </c>
+      <c r="BA184" s="22">
+        <v>1.03324554713858</v>
       </c>
     </row>
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -30528,15 +31892,21 @@
       </c>
       <c r="AY185" s="20">
         <v>1.40409042990542</v>
+      </c>
+      <c r="AZ185" s="20">
+        <v>1.3977662244731199</v>
+      </c>
+      <c r="BA185" s="20">
+        <v>1.39974589991033</v>
       </c>
     </row>
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -30681,15 +32051,21 @@
       </c>
       <c r="AY186" s="22">
         <v>61.761725740249702</v>
+      </c>
+      <c r="AZ186" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="BA186" s="22" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>667</v>
+        <v>751</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>668</v>
+        <v>752</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -30834,15 +32210,21 @@
       </c>
       <c r="AY187" s="20">
         <v>15066.154281886</v>
+      </c>
+      <c r="AZ187" s="20">
+        <v>15104.5224374235</v>
+      </c>
+      <c r="BA187" s="20">
+        <v>15157.336765579001</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>669</v>
+        <v>753</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>670</v>
+        <v>754</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -30982,20 +32364,26 @@
       <c r="AW188" s="22">
         <v>157.465591047233</v>
       </c>
-      <c r="AX188" s="22" t="s">
-        <v>671</v>
-      </c>
-      <c r="AY188" s="22" t="s">
-        <v>672</v>
+      <c r="AX188" s="22">
+        <v>156.097099729555</v>
+      </c>
+      <c r="AY188" s="22">
+        <v>155.83999681520299</v>
+      </c>
+      <c r="AZ188" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="BA188" s="22" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>673</v>
+        <v>757</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>674</v>
+        <v>758</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -31019,136 +32407,142 @@
         <v>118479.385723806</v>
       </c>
       <c r="K189" s="20" t="s">
-        <v>675</v>
+        <v>759</v>
       </c>
       <c r="L189" s="20" t="s">
-        <v>676</v>
+        <v>760</v>
       </c>
       <c r="M189" s="20" t="s">
-        <v>677</v>
+        <v>761</v>
       </c>
       <c r="N189" s="20" t="s">
-        <v>678</v>
+        <v>762</v>
       </c>
       <c r="O189" s="20" t="s">
-        <v>679</v>
+        <v>763</v>
       </c>
       <c r="P189" s="20" t="s">
-        <v>680</v>
+        <v>764</v>
       </c>
       <c r="Q189" s="20" t="s">
-        <v>681</v>
+        <v>765</v>
       </c>
       <c r="R189" s="20" t="s">
-        <v>682</v>
+        <v>766</v>
       </c>
       <c r="S189" s="20" t="s">
-        <v>683</v>
+        <v>767</v>
       </c>
       <c r="T189" s="20" t="s">
-        <v>684</v>
+        <v>768</v>
       </c>
       <c r="U189" s="20" t="s">
-        <v>685</v>
+        <v>769</v>
       </c>
       <c r="V189" s="20" t="s">
-        <v>686</v>
+        <v>770</v>
       </c>
       <c r="W189" s="20" t="s">
-        <v>687</v>
+        <v>771</v>
       </c>
       <c r="X189" s="20" t="s">
-        <v>688</v>
+        <v>772</v>
       </c>
       <c r="Y189" s="20" t="s">
-        <v>689</v>
+        <v>773</v>
       </c>
       <c r="Z189" s="20" t="s">
-        <v>690</v>
+        <v>774</v>
       </c>
       <c r="AA189" s="20" t="s">
-        <v>691</v>
+        <v>775</v>
       </c>
       <c r="AB189" s="20" t="s">
-        <v>692</v>
+        <v>776</v>
       </c>
       <c r="AC189" s="20" t="s">
-        <v>693</v>
+        <v>777</v>
       </c>
       <c r="AD189" s="20" t="s">
-        <v>694</v>
+        <v>778</v>
       </c>
       <c r="AE189" s="20" t="s">
-        <v>695</v>
+        <v>779</v>
       </c>
       <c r="AF189" s="20" t="s">
-        <v>696</v>
+        <v>780</v>
       </c>
       <c r="AG189" s="20" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="AH189" s="20" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="AI189" s="20" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
       <c r="AJ189" s="20" t="s">
-        <v>700</v>
+        <v>784</v>
       </c>
       <c r="AK189" s="20" t="s">
-        <v>701</v>
+        <v>785</v>
       </c>
       <c r="AL189" s="20" t="s">
-        <v>702</v>
+        <v>786</v>
       </c>
       <c r="AM189" s="20" t="s">
-        <v>703</v>
+        <v>787</v>
       </c>
       <c r="AN189" s="20" t="s">
-        <v>704</v>
+        <v>788</v>
       </c>
       <c r="AO189" s="20" t="s">
-        <v>705</v>
+        <v>789</v>
       </c>
       <c r="AP189" s="20" t="s">
-        <v>706</v>
+        <v>790</v>
       </c>
       <c r="AQ189" s="20" t="s">
-        <v>707</v>
+        <v>791</v>
       </c>
       <c r="AR189" s="20" t="s">
-        <v>708</v>
+        <v>792</v>
       </c>
       <c r="AS189" s="20" t="s">
-        <v>709</v>
+        <v>793</v>
       </c>
       <c r="AT189" s="20" t="s">
-        <v>710</v>
+        <v>794</v>
       </c>
       <c r="AU189" s="20" t="s">
-        <v>711</v>
+        <v>795</v>
       </c>
       <c r="AV189" s="20" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="AW189" s="20" t="s">
-        <v>713</v>
+        <v>797</v>
       </c>
       <c r="AX189" s="20" t="s">
-        <v>714</v>
+        <v>798</v>
       </c>
       <c r="AY189" s="20" t="s">
-        <v>715</v>
+        <v>799</v>
+      </c>
+      <c r="AZ189" s="20" t="s">
+        <v>800</v>
+      </c>
+      <c r="BA189" s="20" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>716</v>
+        <v>802</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>717</v>
+        <v>803</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -31292,16 +32686,22 @@
         <v>32708.727541674602</v>
       </c>
       <c r="AY190" s="22" t="s">
-        <v>718</v>
+        <v>804</v>
+      </c>
+      <c r="AZ190" s="22" t="s">
+        <v>805</v>
+      </c>
+      <c r="BA190" s="22" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>719</v>
+        <v>807</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>720</v>
+        <v>808</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -31446,15 +32846,21 @@
       </c>
       <c r="AY191" s="20">
         <v>2219.86696968047</v>
+      </c>
+      <c r="AZ191" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="BA191" s="20" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>721</v>
+        <v>811</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>722</v>
+        <v>812</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -31598,58 +33004,64 @@
         <v>24.066320227030701</v>
       </c>
       <c r="AY192" s="22" t="s">
-        <v>723</v>
+        <v>813</v>
+      </c>
+      <c r="AZ192" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="BA192" s="22" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>724</v>
+        <v>816</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>725</v>
+        <v>817</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
       </c>
       <c r="E193" s="19" t="s">
-        <v>726</v>
+        <v>818</v>
       </c>
       <c r="F193" s="20" t="s">
-        <v>727</v>
+        <v>819</v>
       </c>
       <c r="G193" s="20" t="s">
-        <v>728</v>
+        <v>820</v>
       </c>
       <c r="H193" s="20" t="s">
-        <v>729</v>
+        <v>821</v>
       </c>
       <c r="I193" s="20" t="s">
-        <v>730</v>
+        <v>822</v>
       </c>
       <c r="J193" s="20" t="s">
-        <v>731</v>
+        <v>823</v>
       </c>
       <c r="K193" s="20" t="s">
-        <v>732</v>
+        <v>824</v>
       </c>
       <c r="L193" s="20" t="s">
-        <v>733</v>
+        <v>825</v>
       </c>
       <c r="M193" s="20" t="s">
-        <v>734</v>
+        <v>826</v>
       </c>
       <c r="N193" s="20" t="s">
-        <v>735</v>
+        <v>827</v>
       </c>
       <c r="O193" s="20" t="s">
-        <v>736</v>
+        <v>828</v>
       </c>
       <c r="P193" s="20" t="s">
-        <v>737</v>
+        <v>829</v>
       </c>
       <c r="Q193" s="20" t="s">
-        <v>738</v>
+        <v>830</v>
       </c>
       <c r="R193" s="20">
         <v>3.4824096119743699</v>
@@ -31748,19 +33160,25 @@
         <v>122.87454358745801</v>
       </c>
       <c r="AX193" s="20" t="s">
-        <v>739</v>
+        <v>831</v>
       </c>
       <c r="AY193" s="20" t="s">
-        <v>740</v>
+        <v>832</v>
+      </c>
+      <c r="AZ193" s="20" t="s">
+        <v>833</v>
+      </c>
+      <c r="BA193" s="20" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="194" ht="24.000000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>741</v>
+        <v>835</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>742</v>
+        <v>836</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -31905,15 +33323,21 @@
       </c>
       <c r="AY194" s="22">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ194" s="22">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA194" s="22">
+        <v>811.50298591846297</v>
       </c>
     </row>
     <row r="195" ht="24.000000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>743</v>
+        <v>837</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>744</v>
+        <v>838</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -32058,15 +33482,21 @@
       </c>
       <c r="AY195" s="20">
         <v>3.7910441607446401</v>
+      </c>
+      <c r="AZ195" s="20">
+        <v>3.7739688060774101</v>
+      </c>
+      <c r="BA195" s="20">
+        <v>3.7793139297578802</v>
       </c>
     </row>
     <row r="196" ht="24.000000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="23" t="s">
-        <v>745</v>
+        <v>839</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>746</v>
+        <v>840</v>
       </c>
       <c r="D196" s="25" t="str">
         <v/>
@@ -32211,6 +33641,12 @@
       </c>
       <c r="AY196" s="22">
         <v>806.92069240243302</v>
+      </c>
+      <c r="AZ196" s="22">
+        <v>811.12187932683003</v>
+      </c>
+      <c r="BA196" s="22">
+        <v>811.50298591846297</v>
       </c>
     </row>
   </sheetData>
